--- a/target/test-classes/TestData.xlsx
+++ b/target/test-classes/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5A465F9D-CD89-4D68-8AA4-984408D214F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BFE81779-5C91-45EF-BFC4-E06AE9742168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="145">
   <si>
     <t>TC_ID</t>
   </si>
@@ -185,6 +185,279 @@
   </si>
   <si>
     <t>IndianOcean444</t>
+  </si>
+  <si>
+    <t>BlackPearl124</t>
+  </si>
+  <si>
+    <t>CursedGold988</t>
+  </si>
+  <si>
+    <t>DragonSea457</t>
+  </si>
+  <si>
+    <t>PirateKing790</t>
+  </si>
+  <si>
+    <t>CodeKeeper322</t>
+  </si>
+  <si>
+    <t>BlackSea112</t>
+  </si>
+  <si>
+    <t>MedSea223</t>
+  </si>
+  <si>
+    <t>AtlanticOcean334</t>
+  </si>
+  <si>
+    <t>IndianOcean445</t>
+  </si>
+  <si>
+    <t>BlackPearl125</t>
+  </si>
+  <si>
+    <t>CursedGold989</t>
+  </si>
+  <si>
+    <t>DragonSea458</t>
+  </si>
+  <si>
+    <t>PirateKing791</t>
+  </si>
+  <si>
+    <t>CodeKeeper323</t>
+  </si>
+  <si>
+    <t>BlackSea113</t>
+  </si>
+  <si>
+    <t>MedSea224</t>
+  </si>
+  <si>
+    <t>AtlanticOcean335</t>
+  </si>
+  <si>
+    <t>IndianOcean446</t>
+  </si>
+  <si>
+    <t>BlackPearl126</t>
+  </si>
+  <si>
+    <t>CursedGold990</t>
+  </si>
+  <si>
+    <t>DragonSea459</t>
+  </si>
+  <si>
+    <t>PirateKing792</t>
+  </si>
+  <si>
+    <t>CodeKeeper324</t>
+  </si>
+  <si>
+    <t>BlackSea114</t>
+  </si>
+  <si>
+    <t>MedSea225</t>
+  </si>
+  <si>
+    <t>AtlanticOcean336</t>
+  </si>
+  <si>
+    <t>IndianOcean447</t>
+  </si>
+  <si>
+    <t>BlackPearl127</t>
+  </si>
+  <si>
+    <t>CursedGold991</t>
+  </si>
+  <si>
+    <t>DragonSea460</t>
+  </si>
+  <si>
+    <t>PirateKing793</t>
+  </si>
+  <si>
+    <t>CodeKeeper325</t>
+  </si>
+  <si>
+    <t>BlackSea115</t>
+  </si>
+  <si>
+    <t>MedSea226</t>
+  </si>
+  <si>
+    <t>AtlanticOcean337</t>
+  </si>
+  <si>
+    <t>IndianOcean448</t>
+  </si>
+  <si>
+    <t>BlackPearl128</t>
+  </si>
+  <si>
+    <t>CursedGold992</t>
+  </si>
+  <si>
+    <t>DragonSea461</t>
+  </si>
+  <si>
+    <t>PirateKing794</t>
+  </si>
+  <si>
+    <t>CodeKeeper326</t>
+  </si>
+  <si>
+    <t>BlackSea116</t>
+  </si>
+  <si>
+    <t>MedSea227</t>
+  </si>
+  <si>
+    <t>AtlanticOcean338</t>
+  </si>
+  <si>
+    <t>IndianOcean449</t>
+  </si>
+  <si>
+    <t>BlackPearl129</t>
+  </si>
+  <si>
+    <t>CursedGold993</t>
+  </si>
+  <si>
+    <t>DragonSea462</t>
+  </si>
+  <si>
+    <t>PirateKing795</t>
+  </si>
+  <si>
+    <t>CodeKeeper327</t>
+  </si>
+  <si>
+    <t>BlackSea117</t>
+  </si>
+  <si>
+    <t>MedSea228</t>
+  </si>
+  <si>
+    <t>AtlanticOcean339</t>
+  </si>
+  <si>
+    <t>IndianOcean450</t>
+  </si>
+  <si>
+    <t>BlackPearl130</t>
+  </si>
+  <si>
+    <t>CursedGold994</t>
+  </si>
+  <si>
+    <t>DragonSea463</t>
+  </si>
+  <si>
+    <t>PirateKing796</t>
+  </si>
+  <si>
+    <t>CodeKeeper328</t>
+  </si>
+  <si>
+    <t>BlackSea118</t>
+  </si>
+  <si>
+    <t>MedSea229</t>
+  </si>
+  <si>
+    <t>AtlanticOcean340</t>
+  </si>
+  <si>
+    <t>IndianOcean451</t>
+  </si>
+  <si>
+    <t>BlackPearl131</t>
+  </si>
+  <si>
+    <t>CursedGold995</t>
+  </si>
+  <si>
+    <t>DragonSea464</t>
+  </si>
+  <si>
+    <t>PirateKing797</t>
+  </si>
+  <si>
+    <t>CodeKeeper329</t>
+  </si>
+  <si>
+    <t>BlackSea119</t>
+  </si>
+  <si>
+    <t>MedSea230</t>
+  </si>
+  <si>
+    <t>AtlanticOcean341</t>
+  </si>
+  <si>
+    <t>IndianOcean452</t>
+  </si>
+  <si>
+    <t>BlackPearl132</t>
+  </si>
+  <si>
+    <t>CursedGold996</t>
+  </si>
+  <si>
+    <t>DragonSea465</t>
+  </si>
+  <si>
+    <t>PirateKing798</t>
+  </si>
+  <si>
+    <t>CodeKeeper330</t>
+  </si>
+  <si>
+    <t>BlackSea120</t>
+  </si>
+  <si>
+    <t>MedSea231</t>
+  </si>
+  <si>
+    <t>AtlanticOcean342</t>
+  </si>
+  <si>
+    <t>IndianOcean453</t>
+  </si>
+  <si>
+    <t>BlackPearl133</t>
+  </si>
+  <si>
+    <t>CursedGold997</t>
+  </si>
+  <si>
+    <t>DragonSea466</t>
+  </si>
+  <si>
+    <t>PirateKing799</t>
+  </si>
+  <si>
+    <t>CodeKeeper331</t>
+  </si>
+  <si>
+    <t>BlackSea121</t>
+  </si>
+  <si>
+    <t>MedSea232</t>
+  </si>
+  <si>
+    <t>AtlanticOcean343</t>
+  </si>
+  <si>
+    <t>IndianOcean454</t>
+  </si>
+  <si>
+    <t>BlackPearl134</t>
   </si>
 </sst>
 </file>
@@ -684,11 +957,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B23ADDE-B682-4A7C-A6A5-2B4180071EB7}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="122" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -824,7 +1095,1282 @@
         <v>53</v>
       </c>
     </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1" display="mailto:jack.sparrow@pirate.com" xr:uid="{85459599-F6F9-4094-A5CA-7DF8CC06F73C}"/>
     <hyperlink ref="C2" r:id="rId2" display="mailto:hector.barbossa@pirate.com" xr:uid="{0B34C622-5745-4826-9E90-031DD9234776}"/>
@@ -835,9 +2381,100 @@
     <hyperlink ref="C7" r:id="rId7" display="mailto:chevalle.penniless@pirate.com" xr:uid="{954B712E-DFD7-4B93-A2C4-86AC5F5049FF}"/>
     <hyperlink ref="C8" r:id="rId8" display="mailto:gentleman.jocard@pirate.com" xr:uid="{9CDD1349-CB4F-4389-8901-A03BFFC1B645}"/>
     <hyperlink ref="C9" r:id="rId9" display="mailto:sri.sumbhajee@pirate.com" xr:uid="{74EC6436-04F1-4B2D-BF12-E7C992CDCC1D}"/>
+    <hyperlink ref="C10" r:id="rId10" display="mailto:jack.sparrow@pirate.com" xr:uid="{E79E87F4-C040-4601-94F4-622ED1881A14}"/>
+    <hyperlink ref="C19" r:id="rId11" display="mailto:jack.sparrow@pirate.com" xr:uid="{A4BAA6C7-2A55-451A-9855-F968AB4F59CE}"/>
+    <hyperlink ref="C28" r:id="rId12" display="mailto:jack.sparrow@pirate.com" xr:uid="{DD33E63B-4529-4B05-886E-0EA2B56A48F0}"/>
+    <hyperlink ref="C37" r:id="rId13" display="mailto:jack.sparrow@pirate.com" xr:uid="{6FC00E4C-0973-4652-A176-9CCDCF72DBE1}"/>
+    <hyperlink ref="C46" r:id="rId14" display="mailto:jack.sparrow@pirate.com" xr:uid="{EBC1C117-3238-4ED0-B597-97BB4E3FE2DD}"/>
+    <hyperlink ref="C55" r:id="rId15" display="mailto:jack.sparrow@pirate.com" xr:uid="{9232D3F8-97B7-4FA8-844D-C3BFC642F774}"/>
+    <hyperlink ref="C64" r:id="rId16" display="mailto:jack.sparrow@pirate.com" xr:uid="{4307BF95-9C21-4A1A-ACF0-B798E8B1FA05}"/>
+    <hyperlink ref="C73" r:id="rId17" display="mailto:jack.sparrow@pirate.com" xr:uid="{0D761794-CD95-41F1-B0BE-4D4998896701}"/>
+    <hyperlink ref="C82" r:id="rId18" display="mailto:jack.sparrow@pirate.com" xr:uid="{4CA2CAF8-04A9-4D1B-B992-EDF829953C81}"/>
+    <hyperlink ref="C91" r:id="rId19" display="mailto:jack.sparrow@pirate.com" xr:uid="{ABA57D66-9428-4107-BD1F-2210AD86C30A}"/>
+    <hyperlink ref="C100" r:id="rId20" display="mailto:sri.sumbhajee@pirate.com" xr:uid="{AA7E32E2-7BC8-473F-9AA9-21C1DAF2FB99}"/>
+    <hyperlink ref="C11" r:id="rId21" display="mailto:hector.barbossa@pirate.com" xr:uid="{620FF586-E0C7-4A76-915C-57D056BFBF4A}"/>
+    <hyperlink ref="C20" r:id="rId22" display="mailto:hector.barbossa@pirate.com" xr:uid="{69A97F1E-2ED8-43C2-B69E-969A677D11C2}"/>
+    <hyperlink ref="C29" r:id="rId23" display="mailto:hector.barbossa@pirate.com" xr:uid="{7C087617-AD99-46CA-ACB6-E024829622B7}"/>
+    <hyperlink ref="C38" r:id="rId24" display="mailto:hector.barbossa@pirate.com" xr:uid="{F65E3750-9575-4137-B9E3-A28FF9178D02}"/>
+    <hyperlink ref="C47" r:id="rId25" display="mailto:hector.barbossa@pirate.com" xr:uid="{1CC4CBEB-92EA-4203-80FF-D7860780BE7B}"/>
+    <hyperlink ref="C56" r:id="rId26" display="mailto:hector.barbossa@pirate.com" xr:uid="{6DF6E120-6469-4BD1-9AA6-7347C592C6F5}"/>
+    <hyperlink ref="C65" r:id="rId27" display="mailto:hector.barbossa@pirate.com" xr:uid="{B8FB4AB7-A6B1-4C82-884B-4F7531D463B8}"/>
+    <hyperlink ref="C74" r:id="rId28" display="mailto:hector.barbossa@pirate.com" xr:uid="{9BC7EB45-D51F-4EC4-B16F-E12AECA556CA}"/>
+    <hyperlink ref="C83" r:id="rId29" display="mailto:hector.barbossa@pirate.com" xr:uid="{A65A8484-6ECE-4712-A7B6-7C9A262A777E}"/>
+    <hyperlink ref="C92" r:id="rId30" display="mailto:hector.barbossa@pirate.com" xr:uid="{5E8B714C-F068-42E4-BC2B-20FBAEEECC3D}"/>
+    <hyperlink ref="C12" r:id="rId31" display="mailto:sao.feng@pirate.com" xr:uid="{F0BDCB50-C644-4156-9C90-701DE1ED39F4}"/>
+    <hyperlink ref="C21" r:id="rId32" display="mailto:sao.feng@pirate.com" xr:uid="{6959C0EF-9384-4259-A3CB-7518AAC5EEEF}"/>
+    <hyperlink ref="C30" r:id="rId33" display="mailto:sao.feng@pirate.com" xr:uid="{14909D7E-AC5D-4D00-855D-6461ED9F60DF}"/>
+    <hyperlink ref="C39" r:id="rId34" display="mailto:sao.feng@pirate.com" xr:uid="{EF2EE614-8FA5-44E4-A4C7-8A34DC771B49}"/>
+    <hyperlink ref="C48" r:id="rId35" display="mailto:sao.feng@pirate.com" xr:uid="{0B4A487A-CE80-4FB6-BA08-882B6E7047F4}"/>
+    <hyperlink ref="C57" r:id="rId36" display="mailto:sao.feng@pirate.com" xr:uid="{86A5B017-62C6-44DD-B58A-4E6918B3E1E0}"/>
+    <hyperlink ref="C66" r:id="rId37" display="mailto:sao.feng@pirate.com" xr:uid="{92D7CFD8-C00D-4713-A6E0-03F1DE5CB79E}"/>
+    <hyperlink ref="C75" r:id="rId38" display="mailto:sao.feng@pirate.com" xr:uid="{7848B6FB-95B2-4236-8BF8-79764A26CD33}"/>
+    <hyperlink ref="C84" r:id="rId39" display="mailto:sao.feng@pirate.com" xr:uid="{67487633-3FEB-4344-8325-F1662E2EE850}"/>
+    <hyperlink ref="C93" r:id="rId40" display="mailto:sao.feng@pirate.com" xr:uid="{D37C3C78-5897-4AAD-9EC7-A48DE7E36FC3}"/>
+    <hyperlink ref="C13" r:id="rId41" display="mailto:elizabeth.swann@pirate.com" xr:uid="{DF720E3A-52EE-47C2-A1F7-8C3C7D653387}"/>
+    <hyperlink ref="C22" r:id="rId42" display="mailto:elizabeth.swann@pirate.com" xr:uid="{F0A6755C-B7EA-42AD-A08D-880B6005A227}"/>
+    <hyperlink ref="C31" r:id="rId43" display="mailto:elizabeth.swann@pirate.com" xr:uid="{BBC43CE3-CA6A-4C0A-AFF8-FC6F7D0B45E6}"/>
+    <hyperlink ref="C40" r:id="rId44" display="mailto:elizabeth.swann@pirate.com" xr:uid="{E0BFDF64-8B90-4BBE-8B63-A1A1C2448258}"/>
+    <hyperlink ref="C49" r:id="rId45" display="mailto:elizabeth.swann@pirate.com" xr:uid="{F7B9F11D-A116-4683-A568-083E37796E56}"/>
+    <hyperlink ref="C58" r:id="rId46" display="mailto:elizabeth.swann@pirate.com" xr:uid="{A66D9551-D257-477D-9C15-CCFF6C0D138A}"/>
+    <hyperlink ref="C67" r:id="rId47" display="mailto:elizabeth.swann@pirate.com" xr:uid="{6BC13CBD-114D-478C-AA7A-6E41C6358D5F}"/>
+    <hyperlink ref="C76" r:id="rId48" display="mailto:elizabeth.swann@pirate.com" xr:uid="{A05C4F26-853D-4941-8440-4EF3CCEAF542}"/>
+    <hyperlink ref="C85" r:id="rId49" display="mailto:elizabeth.swann@pirate.com" xr:uid="{19B89BD4-5D5D-4BFE-BB8C-44E3EB624B20}"/>
+    <hyperlink ref="C94" r:id="rId50" display="mailto:elizabeth.swann@pirate.com" xr:uid="{ACB53777-8BB5-4CAC-BCDB-BFEF21299806}"/>
+    <hyperlink ref="C14" r:id="rId51" display="mailto:teague.sparrow@pirate.com" xr:uid="{5820BE69-E14E-4175-AD51-F58B89ADF847}"/>
+    <hyperlink ref="C23" r:id="rId52" display="mailto:teague.sparrow@pirate.com" xr:uid="{F6CA1D9D-514D-4BCE-B5E8-96282CE11193}"/>
+    <hyperlink ref="C32" r:id="rId53" display="mailto:teague.sparrow@pirate.com" xr:uid="{45AED14F-CF2A-408A-AD17-5DE920D6E8CC}"/>
+    <hyperlink ref="C41" r:id="rId54" display="mailto:teague.sparrow@pirate.com" xr:uid="{B12DE30E-5F41-4C57-968F-9BD2FA549D6E}"/>
+    <hyperlink ref="C50" r:id="rId55" display="mailto:teague.sparrow@pirate.com" xr:uid="{77702E90-DC44-42F5-BCFC-F16E79F4AB08}"/>
+    <hyperlink ref="C59" r:id="rId56" display="mailto:teague.sparrow@pirate.com" xr:uid="{7D3F739A-185B-4948-B0CF-D582598B6F93}"/>
+    <hyperlink ref="C68" r:id="rId57" display="mailto:teague.sparrow@pirate.com" xr:uid="{88925905-24B3-4F1C-9140-9B3DA708D26D}"/>
+    <hyperlink ref="C77" r:id="rId58" display="mailto:teague.sparrow@pirate.com" xr:uid="{9BE58D80-FA72-484D-B6C5-B1111FC8DDEC}"/>
+    <hyperlink ref="C86" r:id="rId59" display="mailto:teague.sparrow@pirate.com" xr:uid="{88BD6505-A267-4B44-A3D1-5F0707E9C27B}"/>
+    <hyperlink ref="C95" r:id="rId60" display="mailto:teague.sparrow@pirate.com" xr:uid="{362A37EE-96A7-4334-9523-341AEFAA3663}"/>
+    <hyperlink ref="C15" r:id="rId61" display="mailto:ammand.corsair@pirate.com" xr:uid="{EA94B5DC-D3EB-4F05-88E7-110724784CDD}"/>
+    <hyperlink ref="C24" r:id="rId62" display="mailto:ammand.corsair@pirate.com" xr:uid="{541BEF75-1E42-4B5B-BD2F-F79C93EC80D6}"/>
+    <hyperlink ref="C33" r:id="rId63" display="mailto:ammand.corsair@pirate.com" xr:uid="{9622C257-FFDA-4DB2-92C8-1A0F91F5F923}"/>
+    <hyperlink ref="C42" r:id="rId64" display="mailto:ammand.corsair@pirate.com" xr:uid="{00725CD4-26F2-4731-AF6A-4F5EE669E3C7}"/>
+    <hyperlink ref="C51" r:id="rId65" display="mailto:ammand.corsair@pirate.com" xr:uid="{496B9490-7407-4B60-9CEE-A5B5C1512FDB}"/>
+    <hyperlink ref="C60" r:id="rId66" display="mailto:ammand.corsair@pirate.com" xr:uid="{CFCCE45B-9AB4-4103-8743-D13D6848789F}"/>
+    <hyperlink ref="C69" r:id="rId67" display="mailto:ammand.corsair@pirate.com" xr:uid="{F963FF53-85AF-4EB5-B120-ADF84C737B15}"/>
+    <hyperlink ref="C78" r:id="rId68" display="mailto:ammand.corsair@pirate.com" xr:uid="{E782E2E0-F8C3-45F2-9E60-CB50BA097054}"/>
+    <hyperlink ref="C87" r:id="rId69" display="mailto:ammand.corsair@pirate.com" xr:uid="{1B637CB7-408A-480A-9B44-C3AAE1863581}"/>
+    <hyperlink ref="C96" r:id="rId70" display="mailto:ammand.corsair@pirate.com" xr:uid="{694DD372-0733-4207-9F93-D006DCD0FB69}"/>
+    <hyperlink ref="C16" r:id="rId71" display="mailto:chevalle.penniless@pirate.com" xr:uid="{AC31C9CB-5596-46D1-B105-40C35A23B3AD}"/>
+    <hyperlink ref="C25" r:id="rId72" display="mailto:chevalle.penniless@pirate.com" xr:uid="{3B689045-C127-4641-873E-068631F5AA54}"/>
+    <hyperlink ref="C34" r:id="rId73" display="mailto:chevalle.penniless@pirate.com" xr:uid="{EC8FECEA-3DA3-4BBF-BB01-7C8C866204D1}"/>
+    <hyperlink ref="C43" r:id="rId74" display="mailto:chevalle.penniless@pirate.com" xr:uid="{9E68328C-E16E-4E1F-BBCE-74FEDB9E235E}"/>
+    <hyperlink ref="C52" r:id="rId75" display="mailto:chevalle.penniless@pirate.com" xr:uid="{CF0F9BEB-4E24-431E-980A-C8FC7A380739}"/>
+    <hyperlink ref="C61" r:id="rId76" display="mailto:chevalle.penniless@pirate.com" xr:uid="{61E726C2-7BBC-4B28-9E68-0FBEDF3055AF}"/>
+    <hyperlink ref="C70" r:id="rId77" display="mailto:chevalle.penniless@pirate.com" xr:uid="{DF21B339-8FEB-4A86-81DC-08B99EA818C6}"/>
+    <hyperlink ref="C79" r:id="rId78" display="mailto:chevalle.penniless@pirate.com" xr:uid="{512A6008-8EB3-4774-A858-B783C5F59715}"/>
+    <hyperlink ref="C88" r:id="rId79" display="mailto:chevalle.penniless@pirate.com" xr:uid="{10E514F1-2B57-4DDA-B729-CED505608822}"/>
+    <hyperlink ref="C97" r:id="rId80" display="mailto:chevalle.penniless@pirate.com" xr:uid="{744825EB-E2AF-49A3-B2CB-9F126F5CF755}"/>
+    <hyperlink ref="C17" r:id="rId81" display="mailto:gentleman.jocard@pirate.com" xr:uid="{698629DD-BE01-45B7-A982-1A784E3ADB80}"/>
+    <hyperlink ref="C26" r:id="rId82" display="mailto:gentleman.jocard@pirate.com" xr:uid="{398BAA93-70F5-4BAF-AF00-CD7E0A459835}"/>
+    <hyperlink ref="C35" r:id="rId83" display="mailto:gentleman.jocard@pirate.com" xr:uid="{8664C58F-6781-4EE6-AB4A-7CCA82D752E7}"/>
+    <hyperlink ref="C44" r:id="rId84" display="mailto:gentleman.jocard@pirate.com" xr:uid="{B43BD4C2-FB3D-4C19-B5A0-ED55D349D0BD}"/>
+    <hyperlink ref="C53" r:id="rId85" display="mailto:gentleman.jocard@pirate.com" xr:uid="{BE27956B-7BBD-4CD6-BC0A-1A6DEF185FDC}"/>
+    <hyperlink ref="C62" r:id="rId86" display="mailto:gentleman.jocard@pirate.com" xr:uid="{972E3DF1-38C1-4724-8A6A-8107450BF7ED}"/>
+    <hyperlink ref="C71" r:id="rId87" display="mailto:gentleman.jocard@pirate.com" xr:uid="{3D44BBC4-6493-44E9-B9A9-EA7CB6545F32}"/>
+    <hyperlink ref="C80" r:id="rId88" display="mailto:gentleman.jocard@pirate.com" xr:uid="{E5354A9C-0BA5-4426-9704-83FA3F4FC3C4}"/>
+    <hyperlink ref="C89" r:id="rId89" display="mailto:gentleman.jocard@pirate.com" xr:uid="{1D50CE9D-E332-416C-AD8D-E91FA57C0CCF}"/>
+    <hyperlink ref="C98" r:id="rId90" display="mailto:gentleman.jocard@pirate.com" xr:uid="{D4942BD6-42FC-4417-8D4B-D462979001F1}"/>
+    <hyperlink ref="C18" r:id="rId91" display="mailto:sri.sumbhajee@pirate.com" xr:uid="{B75DD28F-9440-47B2-A755-D28FE28DA4EF}"/>
+    <hyperlink ref="C27" r:id="rId92" display="mailto:sri.sumbhajee@pirate.com" xr:uid="{B6580E72-5B9D-442D-B977-0081D839E5F9}"/>
+    <hyperlink ref="C36" r:id="rId93" display="mailto:sri.sumbhajee@pirate.com" xr:uid="{A0D5582B-4B5B-44A6-A549-5215C3DECA6D}"/>
+    <hyperlink ref="C45" r:id="rId94" display="mailto:sri.sumbhajee@pirate.com" xr:uid="{9AB0A8CB-AE6C-4DB3-A97E-7F0CFE8C9AF2}"/>
+    <hyperlink ref="C54" r:id="rId95" display="mailto:sri.sumbhajee@pirate.com" xr:uid="{76DFE78F-FB06-44F6-A3DA-E1593FD54F93}"/>
+    <hyperlink ref="C63" r:id="rId96" display="mailto:sri.sumbhajee@pirate.com" xr:uid="{C5A62271-CE78-400C-8F09-B07D5C917656}"/>
+    <hyperlink ref="C72" r:id="rId97" display="mailto:sri.sumbhajee@pirate.com" xr:uid="{F388AC76-D610-44AB-B8EA-A8178B8EDD45}"/>
+    <hyperlink ref="C81" r:id="rId98" display="mailto:sri.sumbhajee@pirate.com" xr:uid="{DED7F020-990C-4915-B8B3-6E77CEF26D35}"/>
+    <hyperlink ref="C90" r:id="rId99" display="mailto:sri.sumbhajee@pirate.com" xr:uid="{223B20E2-89F5-45AC-BF4F-4A8304AE1F08}"/>
+    <hyperlink ref="C99" r:id="rId100" display="mailto:sri.sumbhajee@pirate.com" xr:uid="{856D583A-496F-4710-8409-C7AB50FDA6AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId101"/>
 </worksheet>
 </file>
 
